--- a/datasets/sigla_cidades.xlsx
+++ b/datasets/sigla_cidades.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos\streamlit\data_analysis_milho\dp_milho\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DFD51E7-660A-446F-9060-4D34547DF960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23EE5AD-7E80-432F-BF2C-181C8DBB5E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF261342-4AF6-41BB-92B7-03FF6622EE94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF261342-4AF6-41BB-92B7-03FF6622EE94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
   <si>
     <t>Fazenda</t>
   </si>
@@ -369,6 +372,12 @@
   </si>
   <si>
     <t>Cambé</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>SOR_2_MT</t>
   </si>
 </sst>
 </file>
@@ -750,10 +759,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDD5CE9-0680-4FB2-9B1F-C83ACFDE8B3F}">
-  <dimension ref="A1:E33"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -799,7 +809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -816,7 +826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -833,7 +843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -850,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -867,7 +877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -884,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -901,7 +911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -918,7 +928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -935,7 +945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1003,7 +1013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1020,7 +1030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1037,7 +1047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1071,7 +1081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1139,7 +1149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1156,7 +1166,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1173,7 +1183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1190,7 +1200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -1224,7 +1234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -1292,7 +1302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -1309,7 +1319,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -1326,7 +1336,31 @@
         <v>107</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E33" xr:uid="{1CDD5CE9-0680-4FB2-9B1F-C83ACFDE8B3F}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="MT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>